--- a/IB/concepts_IB.xlsx
+++ b/IB/concepts_IB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michaël\Documents\master1_miage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deptinfo\Documents\miage_m1\S2\projet_IB_IHM\IB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
   <si>
     <t>Nom concept</t>
   </si>
@@ -505,12 +505,69 @@
   <si>
     <t>Strategic reflectivity</t>
   </si>
+  <si>
+    <t>Scénario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un FRAGMENT DE BESOINS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est un couplage de « but, scénario ». Il permet de concretiser le but en utilisant le scénario. </t>
+  </si>
+  <si>
+    <t>Relation de composition "ET"</t>
+  </si>
+  <si>
+    <t>Relation d' alternative "OU"</t>
+  </si>
+  <si>
+    <t>Relation d'affinement "affiné par"</t>
+  </si>
+  <si>
+    <t>associe des Fragments de besoins ayant le même but mais des manières différentes de l’atteindre.</t>
+  </si>
+  <si>
+    <t>Il s'agit d'une description de comportement possible du système pour atteindre un but.</t>
+  </si>
+  <si>
+    <t>Les agents</t>
+  </si>
+  <si>
+    <t>Le système lui-même et les utilisateurs</t>
+  </si>
+  <si>
+    <t>Explicite souhaite obtenir l'usager avec l’aide du système.</t>
+  </si>
+  <si>
+    <t>Ce lien permet d'associer des Fragments de besoins complémentaires dans le sens où l’un est indispensable au fonctionnement de l’autre.</t>
+  </si>
+  <si>
+    <t>Identifie les services qui doivent être mis en oeuvre par le système pour satisfaire un but de gestion.</t>
+  </si>
+  <si>
+    <t>Niveau d'abstraction comportemental</t>
+  </si>
+  <si>
+    <t>Niveau d'abstraction fonctionnel</t>
+  </si>
+  <si>
+    <t>on se focalise sur les interactions de l’usager avec le système qui permettent de mettre en oeuvre les services identifiés au niveau comportemental.</t>
+  </si>
+  <si>
+    <t>Niveau d'abstraction physique</t>
+  </si>
+  <si>
+    <t>Se centre sur la découverte de ce que le système doit faire pour permettre les interactions sélectionnées au niveau fonctionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lie des fragments de besoins à différents niveau d'astraction, il permet d'élucider des buts à un niveau plus fin. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,8 +620,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,9 +691,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,6 +700,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,174 +1019,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="98.7109375" customWidth="1"/>
+    <col min="3" max="3" width="135.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1195,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1204,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1141,7 +1213,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1222,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
@@ -1159,7 +1231,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1240,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1249,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>118</v>
       </c>
@@ -1186,7 +1258,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>52</v>
       </c>
@@ -1195,7 +1267,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>77</v>
       </c>
@@ -1204,7 +1276,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1285,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -1222,7 +1294,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1303,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1312,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1249,7 +1321,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>17</v>
       </c>
@@ -1258,7 +1330,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1339,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1348,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -1285,7 +1357,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -1294,7 +1366,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1375,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
       <c r="B39" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1384,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -1321,7 +1393,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -1330,7 +1402,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
       <c r="B42" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1411,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
       <c r="B43" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1420,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="5"/>
       <c r="B44" t="s">
         <v>27</v>
       </c>
@@ -1357,7 +1429,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1438,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
       <c r="B46" t="s">
         <v>31</v>
       </c>
@@ -1375,7 +1447,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
       <c r="B47" t="s">
         <v>32</v>
       </c>
@@ -1384,7 +1456,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
       <c r="B48" t="s">
         <v>33</v>
       </c>
@@ -1393,7 +1465,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
       <c r="B49" t="s">
         <v>34</v>
       </c>
@@ -1402,7 +1474,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
       <c r="B50" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1483,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
       <c r="B51" t="s">
         <v>36</v>
       </c>
@@ -1420,7 +1492,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="5"/>
       <c r="B52" t="s">
         <v>37</v>
       </c>
@@ -1429,7 +1501,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="5"/>
       <c r="B53" t="s">
         <v>38</v>
       </c>
@@ -1438,7 +1510,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7"/>
       <c r="B54" t="s">
         <v>39</v>
       </c>
@@ -1447,7 +1519,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="5"/>
       <c r="B55" t="s">
         <v>39</v>
       </c>
@@ -1456,7 +1528,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="5"/>
       <c r="B56" t="s">
         <v>40</v>
       </c>
@@ -1465,7 +1537,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="A57" s="5"/>
       <c r="B57" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1546,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
       <c r="B58" t="s">
         <v>42</v>
       </c>
@@ -1483,7 +1555,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="5"/>
       <c r="B59" t="s">
         <v>43</v>
       </c>
@@ -1492,7 +1564,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5"/>
       <c r="B60" t="s">
         <v>44</v>
       </c>
@@ -1501,7 +1573,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="A61" s="5"/>
       <c r="B61" t="s">
         <v>62</v>
       </c>
@@ -1510,7 +1582,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5"/>
       <c r="B62" t="s">
         <v>108</v>
       </c>
@@ -1519,7 +1591,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="5"/>
       <c r="B63" t="s">
         <v>112</v>
       </c>
@@ -1528,8 +1600,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C64" t="s">
@@ -1537,8 +1609,8 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C65" t="s">
@@ -1546,8 +1618,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="5"/>
+      <c r="B66" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C66" t="s">
@@ -1555,87 +1627,177 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="10" t="s">
+      <c r="A73" s="5"/>
+      <c r="B73" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="5"/>
+      <c r="B76" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="5"/>
+      <c r="B77" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+      <c r="A80" s="5"/>
       <c r="B80" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/IB/concepts_IB.xlsx
+++ b/IB/concepts_IB.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deptinfo\Documents\miage_m1\S2\projet_IB_IHM\IB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michaël\Documents\GitHub\ProjetSynergieIB-IHM\IB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="4620"/>
   </bookViews>
   <sheets>
-    <sheet name="IB" sheetId="1" r:id="rId1"/>
+    <sheet name="IB" sheetId="5" r:id="rId1"/>
+    <sheet name=" IB - Non trier" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IB!$A$3:$C$90</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="176">
   <si>
     <t>Nom concept</t>
   </si>
@@ -562,12 +566,57 @@
   <si>
     <t xml:space="preserve">Lie des fragments de besoins à différents niveau d'astraction, il permet d'élucider des buts à un niveau plus fin. </t>
   </si>
+  <si>
+    <t>Source(s)</t>
+  </si>
+  <si>
+    <t>http://www.cs.toronto.edu/pub/eric/JMfest09-EY.pdf</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=Actor+Association+Links&amp;structure=i%2A+Guide</t>
+  </si>
+  <si>
+    <t>http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf ; http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide</t>
+  </si>
+  <si>
+    <t>https://www.cetic.be/IMG/pdf/slides-2003-02-24-expose-complet.pdf</t>
+  </si>
+  <si>
+    <t>But (sens général)</t>
+  </si>
+  <si>
+    <t>Représente un desire, une intention quantifiable qu'un acteur veut satisfaire &lt;état désiré&gt;</t>
+  </si>
+  <si>
+    <t>Représente un desire, une intention non quantifiable qu'un acteur veut satisfaire &lt;état désiré&gt;&lt;adjectif|adverbe&gt;</t>
+  </si>
+  <si>
+    <t>Operationnalisation</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=Operationalizations+and+Refinement+of+Goals+and+Softgoals&amp;structure=i%2A+Guide</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=Leaf+Elements&amp;structure=i%2A+Guide</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide ; http://www.i3s.unice.fr/~mirbel/enseign/m1-miage-ib-c3-1617.html</t>
+  </si>
+  <si>
+    <t>http://www.i3s.unice.fr/~mirbel/enseign/m1-miage-ib-c3-1617.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +676,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -678,10 +735,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,8 +763,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1019,10 +1083,996 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="126.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:C90">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+    <sortState ref="A4:C90">
+      <sortCondition ref="B3:B90"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A3:C90">
+    <sortCondition ref="A3"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D13:D16" r:id="rId3" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
+    <hyperlink ref="D27" r:id="rId4" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D28:D35" r:id="rId5" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D26" r:id="rId6" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D36" r:id="rId7"/>
+    <hyperlink ref="D16" r:id="rId8"/>
+    <hyperlink ref="D37" r:id="rId9"/>
+    <hyperlink ref="D22" r:id="rId10" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
+    <hyperlink ref="D23" r:id="rId11" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
+    <hyperlink ref="D87" r:id="rId12"/>
+    <hyperlink ref="D62" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IB/concepts_IB.xlsx
+++ b/IB/concepts_IB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michaël\Documents\GitHub\ProjetSynergieIB-IHM\IB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deptinfo\Documents\miage_m1\S2\projet_IB&amp;IHM\IB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="178">
   <si>
     <t>Nom concept</t>
   </si>
@@ -610,6 +610,12 @@
   </si>
   <si>
     <t>http://www.i3s.unice.fr/~mirbel/enseign/m1-miage-ib-c3-1617.html</t>
+  </si>
+  <si>
+    <t>https://hal.archives-ouvertes.fr/hal-00706492/document</t>
+  </si>
+  <si>
+    <t>http://www.objectiver.com/fileadmin/download/documents/KaosTutorial.pdf</t>
   </si>
 </sst>
 </file>
@@ -739,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,14 +766,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1087,7 +1096,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,23 +1108,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1142,7 +1151,7 @@
       <c r="C5" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1169,6 +1178,9 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
+      <c r="D8" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1190,6 +1202,9 @@
       <c r="C10" t="s">
         <v>76</v>
       </c>
+      <c r="D10" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1211,7 +1226,7 @@
       <c r="C12" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1223,7 +1238,7 @@
       <c r="C13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1235,7 +1250,7 @@
       <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1247,7 +1262,7 @@
       <c r="C15" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1259,7 +1274,7 @@
       <c r="C16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1271,6 +1286,9 @@
       <c r="C17" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="D17" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -1294,12 +1312,15 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,6 +1331,9 @@
       <c r="C21" t="s">
         <v>78</v>
       </c>
+      <c r="D21" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -1319,7 +1343,7 @@
       <c r="C22" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1331,7 +1355,7 @@
       <c r="C23" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1343,6 +1367,9 @@
       <c r="C24" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="D24" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -1358,7 +1385,7 @@
       <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1370,7 +1397,7 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1382,7 +1409,7 @@
       <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1394,7 +1421,7 @@
       <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1406,7 +1433,7 @@
       <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1418,7 +1445,7 @@
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1430,7 +1457,7 @@
       <c r="C32" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1442,7 +1469,7 @@
       <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1454,7 +1481,7 @@
       <c r="C34" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1466,7 +1493,7 @@
       <c r="C35" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1478,7 +1505,7 @@
       <c r="C36" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1490,7 +1517,7 @@
       <c r="C37" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1502,6 +1529,9 @@
       <c r="C38" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="D38" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
@@ -1511,6 +1541,9 @@
       <c r="C39" s="8" t="s">
         <v>88</v>
       </c>
+      <c r="D39" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -1520,6 +1553,9 @@
       <c r="C40" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="D40" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -1561,12 +1597,15 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12"/>
       <c r="B45" t="s">
         <v>150</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>151</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,32 +1724,44 @@
       <c r="C55" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="D55" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12"/>
       <c r="B56" t="s">
         <v>155</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
       <c r="B57" t="s">
         <v>156</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="12"/>
       <c r="B58" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,6 +1772,9 @@
       <c r="C59" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="D59" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -1742,6 +1796,9 @@
       <c r="C61" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="D61" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
@@ -1751,7 +1808,7 @@
       <c r="C62" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="14" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1763,6 +1820,9 @@
       <c r="C63" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="D63" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -1808,6 +1868,9 @@
       <c r="C67" s="8" t="s">
         <v>103</v>
       </c>
+      <c r="D67" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -1817,6 +1880,9 @@
       <c r="C68" s="8" t="s">
         <v>92</v>
       </c>
+      <c r="D68" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1846,30 +1912,39 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="12"/>
       <c r="B72" t="s">
         <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>148</v>
       </c>
+      <c r="D72" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="12"/>
       <c r="B73" t="s">
         <v>147</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>160</v>
       </c>
+      <c r="D73" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="12"/>
       <c r="B74" t="s">
         <v>145</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>153</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,6 +1955,9 @@
       <c r="C75" s="8" t="s">
         <v>105</v>
       </c>
+      <c r="D75" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
@@ -1906,12 +1984,15 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="12"/>
       <c r="B78" t="s">
         <v>142</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>149</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,6 +2039,9 @@
       <c r="C83" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="D83" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -1979,14 +2063,20 @@
       <c r="C85" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="D85" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+      <c r="A86" s="12"/>
       <c r="B86" t="s">
         <v>143</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>144</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,7 +2087,7 @@
       <c r="C87" t="s">
         <v>47</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="14" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2061,9 +2151,26 @@
     <hyperlink ref="D23" r:id="rId11" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
     <hyperlink ref="D87" r:id="rId12"/>
     <hyperlink ref="D62" r:id="rId13"/>
+    <hyperlink ref="D85" r:id="rId14"/>
+    <hyperlink ref="D83" r:id="rId15"/>
+    <hyperlink ref="D75" r:id="rId16"/>
+    <hyperlink ref="D68" r:id="rId17"/>
+    <hyperlink ref="D67" r:id="rId18"/>
+    <hyperlink ref="D63" r:id="rId19"/>
+    <hyperlink ref="D61" r:id="rId20"/>
+    <hyperlink ref="D59" r:id="rId21"/>
+    <hyperlink ref="D55" r:id="rId22"/>
+    <hyperlink ref="D40" r:id="rId23"/>
+    <hyperlink ref="D39" r:id="rId24"/>
+    <hyperlink ref="D38" r:id="rId25"/>
+    <hyperlink ref="D24" r:id="rId26"/>
+    <hyperlink ref="D21" r:id="rId27"/>
+    <hyperlink ref="D17" r:id="rId28"/>
+    <hyperlink ref="D10" r:id="rId29"/>
+    <hyperlink ref="D8" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -2083,19 +2190,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>

--- a/IB/concepts_IB.xlsx
+++ b/IB/concepts_IB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deptinfo\Documents\miage_m1\S2\projet_IB&amp;IHM\IB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michaël\Documents\GitHub\ProjetSynergieIB-IHM\IB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name=" IB - Non trier" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IB!$A$3:$C$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IB!$A$3:$C$84</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="199">
   <si>
     <t>Nom concept</t>
   </si>
@@ -617,12 +617,75 @@
   <si>
     <t>http://www.objectiver.com/fileadmin/download/documents/KaosTutorial.pdf</t>
   </si>
+  <si>
+    <t>Étant donné que le modèle SR repose sur le jugement et l'argumentation, il existe de nombreuses hypothèses à mesure que le modèle est construit. Un quatrième niveau d'évaluation tient à la crédibilité de ces hypothèses. En considérant les hypothèses sous-jacentes derrière les modèles et les liens, nous pouvons évaluer la crédibilité d'un modèle.</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=Believability&amp;structure=i%2A+Guide</t>
+  </si>
+  <si>
+    <t>Crédibilité/Plausabilité</t>
+  </si>
+  <si>
+    <t>Capacité</t>
+  </si>
+  <si>
+    <t>Lorsqu'un agent a une routine qui peut servir à un but, par exemple, pour atteindre un but, nous disons que l'agent a la capacité d'atteindre cet objectif. Dans le contexte de la conception d’un système, cet objectif peut correspondre à une exigence, auquel cas la routine peut être considérée comme l'une des nombreuses options de conception de haut niveau. Dans cette formulation, un acteur a la capacité de faire quelque chose à condition qu’une routine lui a été attribuée. La capacité n'implique pas nécessairement que l'on peut accomplir quelque chose par soi-même. Divers degrés de délégation et dépendance externe peuvent être impliqués.</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=Ability&amp;structure=i%2A+Guide</t>
+  </si>
+  <si>
+    <t>Viabilité</t>
+  </si>
+  <si>
+    <t>La notion de «viabilité» désigne un niveau de garantie qui indique si la routine fonctionnera ou non. Nous disons qu'une routine est viable si les buts non fonctionnel du modèle sont suffisamment satisfaits. Les effets d'une option de routine ou de conception sur les buts non fonctionnel sont affichés dans les liens de contribution. Une routine peut être viable pour un acteur et pas un autre, selon les niveaux de satisfaction des buts non fonctionnel pour chaque acteur.</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=Viability&amp;structure=i%2A+Guide</t>
+  </si>
+  <si>
+    <t>Une fois qu'un acteur a une routine, nous pouvons analyser d’avantage si cette routine est effectivement réalisable. La notion de «Réalisabilité» indique qu'un agent croit qu'une routine fonctionnerait au cours de l'exécution. Ainsi, l'acteur est convaincu qu’au moment de l'exécution, il pourra mener à bien le raisonnement et les actions nécessaires pour obtenir le résultat. Une routine est jugée réalisable si chacun de ses éléments explicitement mentionnés est réalisable et si toutes les contraintes de la routine sont respectées.</t>
+  </si>
+  <si>
+    <t>Réalisabilité</t>
+  </si>
+  <si>
+    <t>http://istar.rwth-aachen.de/tiki-index.php?page=Workability&amp;structure=i%2A+Guide</t>
+  </si>
+  <si>
+    <t>L'abstraction intermédiaire qui peut être utilisée entre un rôle et un agent. C'est un ensemble de rôles généralement joués par un agent (par exemple, attribué conjointement à un agent). Nous disons qu'un agent occupe un poste. On dit qu'un poste couvre un rôle.</t>
+  </si>
+  <si>
+    <t>Caractérisation abstraite du comportement social d'un acteur dans un contexte spécialisé ou domaine d'activité. Ces caractéristiques sont facilement transférables à d'autres acteurs. Les dépendances associées à un rôle s'appliquent indépendamment de l'agent qui joue le rôle.</t>
+  </si>
+  <si>
+    <t>Relation de dépendance</t>
+  </si>
+  <si>
+    <t>Dépendance d'un acteur pour la réalisation d'une tâche, d'un but ou l'approvisionnement d'une ressource</t>
+  </si>
+  <si>
+    <t>Autonomie des acteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les acteurs sont par essence considérés comme autonome. Leurs comportements ne sont pas completement contrôlable, ni determinable. </t>
+  </si>
+  <si>
+    <t>Motivations d'un acteur, ce qu'il veut atteindre.</t>
+  </si>
+  <si>
+    <t>Relation entre un comportement et des actions associés à des objectif et motivations</t>
+  </si>
+  <si>
+    <t>Rationalité</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +753,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -745,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,10 +840,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,19 +1180,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1139,92 +1211,107 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
-        <v>126</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>162</v>
+        <v>107</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>177</v>
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>177</v>
+        <v>122</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
+        <v>120</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>163</v>
@@ -1233,157 +1320,166 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>163</v>
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" t="s">
-        <v>42</v>
+      <c r="B15" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>163</v>
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>44</v>
+      <c r="B16" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" t="s">
-        <v>176</v>
+        <v>169</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>174</v>
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>177</v>
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>166</v>
@@ -1392,10 +1488,10 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>166</v>
@@ -1404,10 +1500,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>166</v>
@@ -1416,10 +1512,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>166</v>
@@ -1428,10 +1524,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>166</v>
@@ -1440,10 +1536,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>166</v>
@@ -1452,10 +1548,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>166</v>
@@ -1464,10 +1560,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>166</v>
@@ -1476,145 +1572,154 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>163</v>
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>163</v>
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>177</v>
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3" t="s">
-        <v>93</v>
+      <c r="A40" s="5"/>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>177</v>
+        <v>196</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" t="s">
-        <v>118</v>
+      <c r="B41" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="9" t="s">
-        <v>138</v>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="9" t="s">
-        <v>130</v>
+      <c r="B44" t="s">
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
       <c r="B45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>151</v>
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>166</v>
@@ -1623,10 +1728,10 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
         <v>166</v>
@@ -1635,10 +1740,10 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
         <v>166</v>
@@ -1647,490 +1752,445 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" t="s">
-        <v>27</v>
+      <c r="B50" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" t="s">
-        <v>29</v>
+      <c r="B51" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>174</v>
+      <c r="A52" s="7"/>
+      <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>114</v>
+      <c r="A53" s="12"/>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="16" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
       <c r="B57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>157</v>
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" t="s">
-        <v>176</v>
+      <c r="A58" s="7"/>
+      <c r="B58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" t="s">
-        <v>165</v>
-      </c>
-    </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>177</v>
+      <c r="A61" s="5"/>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="9" t="s">
-        <v>171</v>
+      <c r="B62" t="s">
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="16" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" t="s">
-        <v>163</v>
+      <c r="A65" s="7"/>
+      <c r="B65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" t="s">
-        <v>23</v>
+      <c r="B66" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>177</v>
+      <c r="A67" s="5"/>
+      <c r="B67" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>177</v>
+      <c r="A68" s="5"/>
+      <c r="B68" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="9" t="s">
-        <v>140</v>
+      <c r="B69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="9" t="s">
-        <v>134</v>
+      <c r="A70" s="12"/>
+      <c r="B70" t="s">
+        <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="D72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D77" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" t="s">
-        <v>176</v>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="9" t="s">
-        <v>139</v>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
       <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" t="s">
-        <v>66</v>
+        <v>143</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="4" t="s">
-        <v>13</v>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>177</v>
+      <c r="A83" s="5"/>
+      <c r="B83" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" t="s">
-        <v>47</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D90" t="s">
-        <v>162</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:C90">
+  <autoFilter ref="A3:C84">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>
-    <sortState ref="A4:C90">
-      <sortCondition ref="B3:B90"/>
+    <sortState ref="A4:C84">
+      <sortCondition ref="B3:B84"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A3:C90">
+  <sortState ref="A3:C84">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="2">
@@ -2138,39 +2198,44 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D12" r:id="rId2"/>
-    <hyperlink ref="D13:D16" r:id="rId3" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
-    <hyperlink ref="D27" r:id="rId4" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
-    <hyperlink ref="D28:D35" r:id="rId5" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
-    <hyperlink ref="D26" r:id="rId6" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
-    <hyperlink ref="D36" r:id="rId7"/>
-    <hyperlink ref="D16" r:id="rId8"/>
-    <hyperlink ref="D37" r:id="rId9"/>
-    <hyperlink ref="D22" r:id="rId10" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
-    <hyperlink ref="D23" r:id="rId11" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
-    <hyperlink ref="D87" r:id="rId12"/>
-    <hyperlink ref="D62" r:id="rId13"/>
-    <hyperlink ref="D85" r:id="rId14"/>
-    <hyperlink ref="D83" r:id="rId15"/>
-    <hyperlink ref="D75" r:id="rId16"/>
-    <hyperlink ref="D68" r:id="rId17"/>
-    <hyperlink ref="D67" r:id="rId18"/>
-    <hyperlink ref="D63" r:id="rId19"/>
-    <hyperlink ref="D61" r:id="rId20"/>
-    <hyperlink ref="D59" r:id="rId21"/>
-    <hyperlink ref="D55" r:id="rId22"/>
-    <hyperlink ref="D40" r:id="rId23"/>
-    <hyperlink ref="D39" r:id="rId24"/>
-    <hyperlink ref="D38" r:id="rId25"/>
-    <hyperlink ref="D24" r:id="rId26"/>
-    <hyperlink ref="D21" r:id="rId27"/>
-    <hyperlink ref="D17" r:id="rId28"/>
-    <hyperlink ref="D10" r:id="rId29"/>
-    <hyperlink ref="D8" r:id="rId30"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D10:D13" r:id="rId3" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
+    <hyperlink ref="D25" r:id="rId4" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D26:D33" r:id="rId5" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D24" r:id="rId6" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D34" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D35" r:id="rId9"/>
+    <hyperlink ref="D20" r:id="rId10" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
+    <hyperlink ref="D21" r:id="rId11" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
+    <hyperlink ref="D82" r:id="rId12"/>
+    <hyperlink ref="D59" r:id="rId13"/>
+    <hyperlink ref="D80" r:id="rId14"/>
+    <hyperlink ref="D78" r:id="rId15"/>
+    <hyperlink ref="D73" r:id="rId16"/>
+    <hyperlink ref="D65" r:id="rId17"/>
+    <hyperlink ref="D64" r:id="rId18"/>
+    <hyperlink ref="D60" r:id="rId19"/>
+    <hyperlink ref="D58" r:id="rId20"/>
+    <hyperlink ref="D56" r:id="rId21"/>
+    <hyperlink ref="D52" r:id="rId22"/>
+    <hyperlink ref="D38" r:id="rId23"/>
+    <hyperlink ref="D37" r:id="rId24"/>
+    <hyperlink ref="D36" r:id="rId25"/>
+    <hyperlink ref="D23" r:id="rId26"/>
+    <hyperlink ref="D19" r:id="rId27"/>
+    <hyperlink ref="D14" r:id="rId28"/>
+    <hyperlink ref="D7" r:id="rId29"/>
+    <hyperlink ref="D5" r:id="rId30"/>
+    <hyperlink ref="D16" r:id="rId31"/>
+    <hyperlink ref="D22" r:id="rId32"/>
+    <hyperlink ref="D83" r:id="rId33"/>
+    <hyperlink ref="D67" r:id="rId34"/>
+    <hyperlink ref="D75" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -2190,19 +2255,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>

--- a/IB/concepts_IB.xlsx
+++ b/IB/concepts_IB.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="IB" sheetId="5" r:id="rId1"/>
-    <sheet name=" IB - Non trier" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IB!$A$3:$C$84</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="181">
   <si>
     <t>Nom concept</t>
   </si>
@@ -51,15 +50,6 @@
     <t>But</t>
   </si>
   <si>
-    <t>Contrainte</t>
-  </si>
-  <si>
-    <t>Activité</t>
-  </si>
-  <si>
-    <t>Relation</t>
-  </si>
-  <si>
     <t>Intention</t>
   </si>
   <si>
@@ -69,9 +59,6 @@
     <t>Modèle de raisonnement</t>
   </si>
   <si>
-    <t>Système</t>
-  </si>
-  <si>
     <t>But non fonctionnel</t>
   </si>
   <si>
@@ -238,12 +225,6 @@
   </si>
   <si>
     <t>Elément permettant de modélisé l'intentionel d'un processus, tel que les tâches, les ressources, les buts fonctionnel ou non.</t>
-  </si>
-  <si>
-    <t>Représente un desire, une l'intention quantifiable qu'un acteur veut satisfaire &lt;état désiré&gt;</t>
-  </si>
-  <si>
-    <t>Représente un desire, une l'intention non quantifiable qu'un acteur veut satisfaire &lt;état désiré&gt;&lt;adjectif|adverbe&gt;</t>
   </si>
   <si>
     <t>Représente l'action effectué par un acteur. &lt;travail à faire&gt;</t>
@@ -435,9 +416,6 @@
     <t>Entité (humaine, logicielle, matériel) capable de faire des actions autonomes.</t>
   </si>
   <si>
-    <t>Groupe de rôle</t>
-  </si>
-  <si>
     <t>Frontiere d'acteur</t>
   </si>
   <si>
@@ -447,9 +425,6 @@
     <t>Association d'agregation d'un rôle, agent ou position avec un autre rôle, agent ou position.</t>
   </si>
   <si>
-    <t>Caractéristique abstraite d'un acteur vis-à-vis du contexte</t>
-  </si>
-  <si>
     <t>Représente une spécialisation d'un acteur par rapport a un acteur du même type.</t>
   </si>
   <si>
@@ -462,27 +437,12 @@
     <t>Association d'un agent à une position</t>
   </si>
   <si>
-    <t>Ability</t>
-  </si>
-  <si>
-    <t>Workability</t>
-  </si>
-  <si>
-    <t>Viability</t>
-  </si>
-  <si>
-    <t>Believability</t>
-  </si>
-  <si>
     <t>Leaf element</t>
   </si>
   <si>
     <t>Element ne recevant aucune contribution et qui ne represente pas necessairement une opération ou une tâche</t>
   </si>
   <si>
-    <t>Operationalization</t>
-  </si>
-  <si>
     <t>Décomposition de but fonctionnel ou non en tâches.</t>
   </si>
   <si>
@@ -493,21 +453,6 @@
   </si>
   <si>
     <t>En rapport avec les liens de dépendance, permet d'expliciter si la relation d'un élément sur un  acteur a un impacte critique, modèrer, au faible. sur.</t>
-  </si>
-  <si>
-    <t>Actor autonomy</t>
-  </si>
-  <si>
-    <t>Intentionality</t>
-  </si>
-  <si>
-    <t>Sociability</t>
-  </si>
-  <si>
-    <t>Rationality</t>
-  </si>
-  <si>
-    <t>Strategic reflectivity</t>
   </si>
   <si>
     <t>Scénario</t>
@@ -814,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,7 +778,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -843,11 +787,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1168,7 +1112,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,11 +1125,11 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,17 +1140,17 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>161</v>
+      <c r="D2" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>162</v>
+        <v>110</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>177</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,670 +1183,670 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>177</v>
+        <v>70</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>163</v>
+        <v>116</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>163</v>
+        <v>114</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>163</v>
+        <v>113</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>163</v>
+        <v>115</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>163</v>
+        <v>117</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>177</v>
+        <v>78</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>177</v>
+        <v>72</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>174</v>
+        <v>151</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>174</v>
+        <v>152</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>183</v>
+        <v>164</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>177</v>
+        <v>96</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>166</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>166</v>
+        <v>53</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>166</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>166</v>
+        <v>57</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>166</v>
+        <v>51</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>166</v>
+        <v>55</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>166</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>166</v>
+        <v>52</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>166</v>
+        <v>56</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>166</v>
+        <v>49</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>163</v>
+        <v>59</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>163</v>
+        <v>65</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>177</v>
+        <v>98</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>177</v>
+        <v>82</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>177</v>
+        <v>88</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>177</v>
+        <v>100</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="11"/>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="11"/>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="11"/>
       <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
         <v>158</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>177</v>
+        <v>74</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>177</v>
+        <v>76</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="9" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>172</v>
+        <v>120</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>177</v>
+        <v>84</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,154 +1855,154 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>177</v>
+        <v>97</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>177</v>
+        <v>86</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="9" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="9" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>189</v>
+        <v>169</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="11"/>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="11"/>
       <c r="B71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>160</v>
+        <v>129</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="A72" s="11"/>
       <c r="B72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>153</v>
+        <v>127</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>177</v>
+        <v>99</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,118 +2011,118 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>163</v>
+        <v>173</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
+      <c r="A76" s="11"/>
       <c r="B76" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>149</v>
+        <v>124</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>177</v>
+        <v>95</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>177</v>
+        <v>80</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
+      <c r="A81" s="11"/>
       <c r="B81" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>175</v>
+        <v>43</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>186</v>
+        <v>166</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2237,797 +2181,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="135.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/IB/concepts_IB.xlsx
+++ b/IB/concepts_IB.xlsx
@@ -16,7 +16,7 @@
     <sheet name=" IB - Non trier" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IB!$A$3:$C$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IB!$A$3:$C$99</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="199">
   <si>
     <t>Nom concept</t>
   </si>
@@ -616,6 +616,69 @@
   </si>
   <si>
     <t>http://www.objectiver.com/fileadmin/download/documents/KaosTutorial.pdf</t>
+  </si>
+  <si>
+    <t>But irréaliste</t>
+  </si>
+  <si>
+    <t>But réaliste</t>
+  </si>
+  <si>
+    <t>Explicite ce que souhaite obtenir l'usager avec l’aide du système.</t>
+  </si>
+  <si>
+    <t>C'est un comportement concret et réaliste du système.</t>
+  </si>
+  <si>
+    <t>C'est un comportement  irréaliste du système.</t>
+  </si>
+  <si>
+    <t>Colette Rolland</t>
+  </si>
+  <si>
+    <t>Ingénierie des Besoins : L'Approche L'Ecritoire</t>
+  </si>
+  <si>
+    <t>Auteur de Fragment de Besoin (AFB)</t>
+  </si>
+  <si>
+    <t>utilisateur ayant rédigé le Fragment de besoin</t>
+  </si>
+  <si>
+    <t>FB concret</t>
+  </si>
+  <si>
+    <t>FB  objectifié</t>
+  </si>
+  <si>
+    <t>il s'agit d'un FB attaché à un scénario</t>
+  </si>
+  <si>
+    <t>il s'agit un FB reduit à un but</t>
+  </si>
+  <si>
+    <t>Etat initial d'un scénario</t>
+  </si>
+  <si>
+    <t>Etat final d'un scénario</t>
+  </si>
+  <si>
+    <t>définit la pré-condition pour qu'un scénario puisse être déclenché</t>
+  </si>
+  <si>
+    <t>définit la post-condition qui doitêtre satisfaite après l’exécution d'un scénario</t>
+  </si>
+  <si>
+    <t>scénario normal</t>
+  </si>
+  <si>
+    <t>il permet d’atteindre le but auquel il est associé</t>
+  </si>
+  <si>
+    <t>un scénario exceptionnel</t>
+  </si>
+  <si>
+    <t>il n'atteindre pas le but auquel il est associé</t>
   </si>
 </sst>
 </file>
@@ -745,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,11 +834,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,19 +1174,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1244,7 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1202,7 +1268,7 @@
       <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1279,171 +1345,163 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
         <v>168</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>110</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>166</v>
+      <c r="D26" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>166</v>
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>166</v>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>166</v>
@@ -1452,10 +1510,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>166</v>
@@ -1464,10 +1522,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>166</v>
@@ -1476,10 +1534,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>166</v>
@@ -1488,10 +1546,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>166</v>
@@ -1500,181 +1558,181 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>177</v>
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>177</v>
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>177</v>
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" t="s">
-        <v>167</v>
+        <v>63</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
-        <v>10</v>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" t="s">
-        <v>162</v>
+      <c r="A43" s="7"/>
+      <c r="B43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" t="s">
-        <v>176</v>
+      <c r="A44" s="7"/>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" t="s">
-        <v>166</v>
+      <c r="B47" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>50</v>
+      <c r="B48" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" t="s">
-        <v>26</v>
+      <c r="B49" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
       <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
+        <v>150</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
         <v>166</v>
@@ -1683,211 +1741,214 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="4" t="s">
-        <v>11</v>
+      <c r="B53" t="s">
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C59" t="s">
         <v>115</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D59" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="3" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D61" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" t="s">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D63" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="3" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D64" s="15" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" t="s">
-        <v>175</v>
+      <c r="A66" s="7"/>
+      <c r="B66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>177</v>
+      <c r="A67" s="5"/>
+      <c r="B67" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="9" t="s">
-        <v>140</v>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
       </c>
       <c r="D69" t="s">
         <v>162</v>
@@ -1895,131 +1956,134 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="9" t="s">
-        <v>134</v>
+      <c r="B70" t="s">
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="4" t="s">
-        <v>9</v>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>153</v>
+      <c r="A72" s="7"/>
+      <c r="B72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>177</v>
+      <c r="A75" s="5"/>
+      <c r="B75" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" t="s">
-        <v>174</v>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="12"/>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="9" t="s">
-        <v>139</v>
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" t="s">
-        <v>162</v>
+      <c r="A80" s="7"/>
+      <c r="B80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
         <v>174</v>
@@ -2027,74 +2091,68 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
       <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>177</v>
+        <v>191</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
       <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" t="s">
-        <v>47</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>175</v>
+        <v>195</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
         <v>162</v>
@@ -2103,26 +2161,122 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="9" t="s">
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D99" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C90">
+  <autoFilter ref="A3:C99">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>
@@ -2141,36 +2295,35 @@
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="D12" r:id="rId2"/>
     <hyperlink ref="D13:D16" r:id="rId3" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
-    <hyperlink ref="D27" r:id="rId4" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
-    <hyperlink ref="D28:D35" r:id="rId5" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
-    <hyperlink ref="D26" r:id="rId6" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
-    <hyperlink ref="D36" r:id="rId7"/>
+    <hyperlink ref="D32" r:id="rId4" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D33:D40" r:id="rId5" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D31" r:id="rId6" display="http://www.ptidej.net/courses/log3410/fall11/folder.2011-09-06.0885201646/Seance10_log3410.pdf"/>
+    <hyperlink ref="D41" r:id="rId7"/>
     <hyperlink ref="D16" r:id="rId8"/>
-    <hyperlink ref="D37" r:id="rId9"/>
-    <hyperlink ref="D22" r:id="rId10" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
-    <hyperlink ref="D23" r:id="rId11" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
-    <hyperlink ref="D87" r:id="rId12"/>
-    <hyperlink ref="D62" r:id="rId13"/>
-    <hyperlink ref="D85" r:id="rId14"/>
-    <hyperlink ref="D83" r:id="rId15"/>
-    <hyperlink ref="D75" r:id="rId16"/>
-    <hyperlink ref="D68" r:id="rId17"/>
-    <hyperlink ref="D67" r:id="rId18"/>
-    <hyperlink ref="D63" r:id="rId19"/>
-    <hyperlink ref="D61" r:id="rId20"/>
-    <hyperlink ref="D59" r:id="rId21"/>
-    <hyperlink ref="D55" r:id="rId22"/>
-    <hyperlink ref="D40" r:id="rId23"/>
-    <hyperlink ref="D39" r:id="rId24"/>
-    <hyperlink ref="D38" r:id="rId25"/>
-    <hyperlink ref="D24" r:id="rId26"/>
-    <hyperlink ref="D21" r:id="rId27"/>
-    <hyperlink ref="D17" r:id="rId28"/>
-    <hyperlink ref="D10" r:id="rId29"/>
-    <hyperlink ref="D8" r:id="rId30"/>
+    <hyperlink ref="D42" r:id="rId9"/>
+    <hyperlink ref="D27" r:id="rId10" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
+    <hyperlink ref="D28" r:id="rId11" display="http://istar.rwth-aachen.de/tiki-index.php?page=iStarQuickGuide"/>
+    <hyperlink ref="D96" r:id="rId12"/>
+    <hyperlink ref="D67" r:id="rId13"/>
+    <hyperlink ref="D94" r:id="rId14"/>
+    <hyperlink ref="D92" r:id="rId15"/>
+    <hyperlink ref="D80" r:id="rId16"/>
+    <hyperlink ref="D73" r:id="rId17"/>
+    <hyperlink ref="D72" r:id="rId18"/>
+    <hyperlink ref="D68" r:id="rId19"/>
+    <hyperlink ref="D66" r:id="rId20"/>
+    <hyperlink ref="D64" r:id="rId21"/>
+    <hyperlink ref="D60" r:id="rId22"/>
+    <hyperlink ref="D45" r:id="rId23"/>
+    <hyperlink ref="D44" r:id="rId24"/>
+    <hyperlink ref="D43" r:id="rId25"/>
+    <hyperlink ref="D29" r:id="rId26"/>
+    <hyperlink ref="D18" r:id="rId27"/>
+    <hyperlink ref="D10" r:id="rId28"/>
+    <hyperlink ref="D8" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -2190,19 +2343,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
